--- a/Bases/CryptoL.xlsx
+++ b/Bases/CryptoL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ma_martinezp12_uniandes_edu_co/Documents/Crypto/Python/PaqueteR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CCF751-5AC6-7341-A66F-296895944A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D67F94CD-E524-4342-9365-4834E862D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="names" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">names!$A$1:$G$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">names!$A$1:$G$306</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="511">
   <si>
     <t>ANKR</t>
   </si>
@@ -214,18 +214,12 @@
     <t>Atletico de Madrid</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>Atomic</t>
   </si>
   <si>
     <t>Music</t>
   </si>
   <si>
-    <t>Enterteiment</t>
-  </si>
-  <si>
     <t>Avalanche</t>
   </si>
   <si>
@@ -748,9 +742,6 @@
     <t>AUCTION-USD</t>
   </si>
   <si>
-    <t>AUD-USD</t>
-  </si>
-  <si>
     <t>AUDIO-USD</t>
   </si>
   <si>
@@ -961,9 +952,6 @@
     <t>ETH-USD</t>
   </si>
   <si>
-    <t>EUR-USD</t>
-  </si>
-  <si>
     <t>FARM-USD</t>
   </si>
   <si>
@@ -1018,9 +1006,6 @@
     <t>GAS-USD</t>
   </si>
   <si>
-    <t>GBP-USD</t>
-  </si>
-  <si>
     <t>GHST-USD</t>
   </si>
   <si>
@@ -1580,6 +1565,9 @@
   </si>
   <si>
     <t>ZRX-USD</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
   </si>
 </sst>
 </file>
@@ -2508,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A309"/>
+      <selection activeCell="A32" sqref="A32:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -2538,15 +2526,15 @@
         <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -2569,7 +2557,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2592,7 +2580,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -2615,7 +2603,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -2638,7 +2626,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -2650,7 +2638,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>2.723617843581668</v>
@@ -2661,7 +2649,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -2684,7 +2672,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2707,7 +2695,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -2730,7 +2718,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2753,7 +2741,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -2776,7 +2764,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -2799,7 +2787,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -2808,7 +2796,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -2822,7 +2810,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -2845,7 +2833,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -2868,7 +2856,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2891,7 +2879,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -2900,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -2914,7 +2902,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -2937,7 +2925,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -2960,7 +2948,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -2983,7 +2971,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -3006,7 +2994,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -3029,7 +3017,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -3052,7 +3040,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -3075,7 +3063,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3098,7 +3086,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -3110,7 +3098,7 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26">
         <v>2.7267181879728022</v>
@@ -3121,7 +3109,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -3144,7 +3132,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -3167,7 +3155,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -3179,7 +3167,7 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29">
         <v>2.9570089482824589</v>
@@ -3190,7 +3178,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -3202,7 +3190,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>11.31065304800871</v>
@@ -3213,7 +3201,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3236,53 +3224,53 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>510</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0.67070407529508724</v>
+        <v>0.17810960762958819</v>
       </c>
       <c r="G32">
-        <v>2.361493841277424E-2</v>
+        <v>4.749653614941865E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>0.17810960762958819</v>
+        <v>241.18063314985429</v>
       </c>
       <c r="G33">
-        <v>4.749653614941865E-2</v>
+        <v>36.653289538928412</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -3291,90 +3279,90 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>241.18063314985429</v>
+        <v>0.62694005533806252</v>
       </c>
       <c r="G34">
-        <v>36.653289538928412</v>
+        <v>7.1545520165065962E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F35">
-        <v>0.62694005533806252</v>
+        <v>14.90129352721279</v>
       </c>
       <c r="G35">
-        <v>7.1545520165065962E-2</v>
+        <v>2.916554233325753</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>14.90129352721279</v>
+        <v>8.4152459305919418</v>
       </c>
       <c r="G36">
-        <v>2.916554233325753</v>
+        <v>1.785525392659054</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F37">
-        <v>8.4152459305919418</v>
+        <v>2.7727555706001832</v>
       </c>
       <c r="G37">
-        <v>1.785525392659054</v>
+        <v>0.44551651918229451</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -3383,21 +3371,21 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F38">
-        <v>2.7727555706001832</v>
+        <v>0.1854217672857858</v>
       </c>
       <c r="G38">
-        <v>0.44551651918229451</v>
+        <v>3.7477945558760717E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -3406,21 +3394,21 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0.1854217672857858</v>
+        <v>6.0081131633944613</v>
       </c>
       <c r="G39">
-        <v>3.7477945558760717E-2</v>
+        <v>0.65193367826881077</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -3429,113 +3417,113 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>6.0081131633944613</v>
+        <v>1.733722456068054</v>
       </c>
       <c r="G40">
-        <v>0.65193367826881077</v>
+        <v>0.42096741322123671</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>1.733722456068054</v>
+        <v>3.9913266417449149</v>
       </c>
       <c r="G41">
-        <v>0.42096741322123671</v>
+        <v>0.41239693196076982</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42">
-        <v>3.9913266417449149</v>
+        <v>0.23903620080652291</v>
       </c>
       <c r="G42">
-        <v>0.41239693196076982</v>
+        <v>4.2468987220244697E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
       <c r="F43">
-        <v>0.23903620080652291</v>
+        <v>112.4346657639891</v>
       </c>
       <c r="G43">
-        <v>4.2468987220244697E-2</v>
+        <v>11.21800133404264</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>112.4346657639891</v>
+        <v>8.0950912489329771E-2</v>
       </c>
       <c r="G44">
-        <v>11.21800133404264</v>
+        <v>1.1865028641847941E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -3544,21 +3532,21 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
       </c>
       <c r="F45">
-        <v>8.0950912489329771E-2</v>
+        <v>0.33239204662526117</v>
       </c>
       <c r="G45">
-        <v>1.1865028641847941E-2</v>
+        <v>5.4674623411237737E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -3567,136 +3555,136 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
       <c r="F46">
-        <v>0.33239204662526117</v>
+        <v>369.83875724840311</v>
       </c>
       <c r="G46">
-        <v>5.4674623411237737E-2</v>
+        <v>45.694770841464397</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47">
-        <v>369.83875724840311</v>
+        <v>6.5759631177699937E-2</v>
       </c>
       <c r="G47">
-        <v>45.694770841464397</v>
+        <v>1.1152939700141039E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>6.5759631177699937E-2</v>
+        <v>284.948222117564</v>
       </c>
       <c r="G48">
-        <v>1.1152939700141039E-2</v>
+        <v>27.08879159968803</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>284.948222117564</v>
+        <v>0.39370249904335791</v>
       </c>
       <c r="G49">
-        <v>27.08879159968803</v>
+        <v>4.4108964834972973E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F50">
-        <v>0.39370249904335791</v>
+        <v>106.0302696258794</v>
       </c>
       <c r="G50">
-        <v>4.4108964834972973E-2</v>
+        <v>38.50183549182502</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>106.0302696258794</v>
+        <v>4.1275252847849764</v>
       </c>
       <c r="G51">
-        <v>38.50183549182502</v>
+        <v>0.60860219003444049</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -3705,73 +3693,73 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F52">
-        <v>4.1275252847849764</v>
+        <v>0.20935965178229771</v>
       </c>
       <c r="G52">
-        <v>0.60860219003444049</v>
+        <v>2.8669090259164781E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F53">
-        <v>0.20935965178229771</v>
+        <v>18750.356487210429</v>
       </c>
       <c r="G53">
-        <v>2.8669090259164781E-2</v>
+        <v>2370.2941105111681</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>18750.356487210429</v>
+        <v>0.65198282459600276</v>
       </c>
       <c r="G54">
-        <v>2370.2941105111681</v>
+        <v>0.13275094405294829</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>92</v>
@@ -3780,15 +3768,15 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>0.65198282459600276</v>
+        <v>0.24357920260206639</v>
       </c>
       <c r="G55">
-        <v>0.13275094405294829</v>
+        <v>5.4669403216931547E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
@@ -3797,70 +3785,70 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56">
-        <v>0.24357920260206639</v>
+        <v>3.938226429811909</v>
       </c>
       <c r="G56">
-        <v>5.4669403216931547E-2</v>
+        <v>0.46020005034115402</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F57">
-        <v>3.938226429811909</v>
+        <v>0.61325277426191382</v>
       </c>
       <c r="G57">
-        <v>0.46020005034115402</v>
+        <v>0.11406483844950541</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F58">
-        <v>0.61325277426191382</v>
+        <v>1.3108533688517349E-2</v>
       </c>
       <c r="G58">
-        <v>0.11406483844950541</v>
+        <v>2.642130254028058E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
@@ -3869,93 +3857,93 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F59">
-        <v>1.3108533688517349E-2</v>
+        <v>3.2969758337503312E-2</v>
       </c>
       <c r="G59">
-        <v>2.642130254028058E-3</v>
+        <v>1.19119041874756E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>3.2969758337503312E-2</v>
+        <v>0.2111761457628116</v>
       </c>
       <c r="G60">
-        <v>1.19119041874756E-2</v>
+        <v>2.999062375972163E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F61">
-        <v>0.2111761457628116</v>
+        <v>0.1301318664822064</v>
       </c>
       <c r="G61">
-        <v>2.999062375972163E-2</v>
+        <v>2.1218584989910329E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
         <v>76</v>
       </c>
       <c r="F62">
-        <v>0.1301318664822064</v>
+        <v>0.16045407087981631</v>
       </c>
       <c r="G62">
-        <v>2.1218584989910329E-2</v>
+        <v>4.3319248632699668E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
         <v>77</v>
@@ -3964,153 +3952,153 @@
         <v>78</v>
       </c>
       <c r="F63">
-        <v>0.16045407087981631</v>
+        <v>4.656675742501398</v>
       </c>
       <c r="G63">
-        <v>4.3319248632699668E-2</v>
+        <v>0.66369852144110186</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F64">
-        <v>4.656675742501398</v>
+        <v>2.9625610043269661E-3</v>
       </c>
       <c r="G64">
-        <v>0.66369852144110186</v>
+        <v>5.8894974406709176E-4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>2.9625610043269661E-3</v>
+        <v>6.7069633826862513E-2</v>
       </c>
       <c r="G65">
-        <v>5.8894974406709176E-4</v>
+        <v>1.2643070815033731E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F66">
-        <v>6.7069633826862513E-2</v>
+        <v>0.571955607394107</v>
       </c>
       <c r="G66">
-        <v>1.2643070815033731E-2</v>
+        <v>6.4647323806831788E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>0.571955607394107</v>
+        <v>43.139162570276397</v>
       </c>
       <c r="G67">
-        <v>6.4647323806831788E-2</v>
+        <v>8.2275230488705624</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F68">
-        <v>43.139162570276397</v>
+        <v>5.0801402584405271E-3</v>
       </c>
       <c r="G68">
-        <v>8.2275230488705624</v>
+        <v>5.6822469864991872E-4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>5.0801402584405271E-3</v>
+        <v>8.0334699614399679E-2</v>
       </c>
       <c r="G69">
-        <v>5.6822469864991872E-4</v>
+        <v>1.880027097124819E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -4119,21 +4107,21 @@
         <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70">
-        <v>8.0334699614399679E-2</v>
+        <v>0.75314630736172861</v>
       </c>
       <c r="G70">
-        <v>1.880027097124819E-2</v>
+        <v>0.18982599923496921</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -4142,47 +4130,47 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71">
-        <v>0.75314630736172861</v>
+        <v>0.77973227268713385</v>
       </c>
       <c r="G71">
-        <v>0.18982599923496921</v>
+        <v>4.9738136433037428E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F72">
-        <v>0.77973227268713385</v>
+        <v>0.1227027536573161</v>
       </c>
       <c r="G72">
-        <v>4.9738136433037428E-2</v>
+        <v>1.8482369451445331E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -4191,64 +4179,64 @@
         <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73">
-        <v>0.1227027536573161</v>
+        <v>0.1481807008506755</v>
       </c>
       <c r="G73">
-        <v>1.8482369451445331E-2</v>
+        <v>5.9715847001528793E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
         <v>96</v>
       </c>
       <c r="F74">
-        <v>0.1481807008506755</v>
+        <v>0.1013197215435787</v>
       </c>
       <c r="G74">
-        <v>5.9715847001528793E-2</v>
+        <v>1.544482336033615E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>0.1013197215435787</v>
+        <v>0.36900524387013223</v>
       </c>
       <c r="G75">
-        <v>1.544482336033615E-2</v>
+        <v>5.3956808105910019E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
@@ -4257,90 +4245,90 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76">
-        <v>0.36900524387013223</v>
+        <v>4.4612411179466047</v>
       </c>
       <c r="G76">
-        <v>5.3956808105910019E-2</v>
+        <v>0.95221769525344557</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="F77">
-        <v>4.4612411179466047</v>
+        <v>0.1635184865922939</v>
       </c>
       <c r="G77">
-        <v>0.95221769525344557</v>
+        <v>4.4728960287109348E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F78">
-        <v>0.1635184865922939</v>
+        <v>44.750534983663499</v>
       </c>
       <c r="G78">
-        <v>4.4728960287109348E-2</v>
+        <v>6.4882963603075554</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>44.750534983663499</v>
+        <v>2.8067248697495072E-2</v>
       </c>
       <c r="G79">
-        <v>6.4882963603075554</v>
+        <v>4.5122885348031798E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
         <v>29</v>
@@ -4349,67 +4337,67 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
       <c r="F80">
-        <v>2.8067248697495072E-2</v>
+        <v>1.751525240632267</v>
       </c>
       <c r="G80">
-        <v>4.5122885348031798E-3</v>
+        <v>0.31492236308707361</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F81">
-        <v>1.751525240632267</v>
+        <v>7.7202693315279786E-4</v>
       </c>
       <c r="G81">
-        <v>0.31492236308707361</v>
+        <v>1.138599211159443E-4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="F82">
-        <v>7.7202693315279786E-4</v>
+        <v>2.5875391340181908</v>
       </c>
       <c r="G82">
-        <v>1.138599211159443E-4</v>
+        <v>0.27050681936725413</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
@@ -4418,136 +4406,136 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>2.5875391340181908</v>
+        <v>4.2536503988461427E-2</v>
       </c>
       <c r="G83">
-        <v>0.27050681936725413</v>
+        <v>5.8575748223915081E-3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="F84">
-        <v>4.2536503988461427E-2</v>
+        <v>8.545702028081123E-3</v>
       </c>
       <c r="G84">
-        <v>5.8575748223915081E-3</v>
+        <v>1.2082967658299151E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F85">
-        <v>8.545702028081123E-3</v>
+        <v>0.33812268566214337</v>
       </c>
       <c r="G85">
-        <v>1.2082967658299151E-3</v>
+        <v>4.4926957788750069E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F86">
-        <v>0.33812268566214337</v>
+        <v>1.7072745121125599E-2</v>
       </c>
       <c r="G86">
-        <v>4.4926957788750069E-2</v>
+        <v>2.2824681757800782E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>1.7072745121125599E-2</v>
+        <v>0.11921604362287699</v>
       </c>
       <c r="G87">
-        <v>2.2824681757800782E-3</v>
+        <v>1.514077718755757E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F88">
-        <v>0.11921604362287699</v>
+        <v>8.5119254996614949E-2</v>
       </c>
       <c r="G88">
-        <v>1.514077718755757E-2</v>
+        <v>1.7188103501232802E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
@@ -4556,116 +4544,116 @@
         <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F89">
-        <v>8.5119254996614949E-2</v>
+        <v>5.6415932063697642</v>
       </c>
       <c r="G89">
-        <v>1.7188103501232802E-2</v>
+        <v>0.75236175587748599</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F90">
-        <v>5.6415932063697642</v>
+        <v>0.32892855061372273</v>
       </c>
       <c r="G90">
-        <v>0.75236175587748599</v>
+        <v>4.5371873761639848E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F91">
-        <v>0.32892855061372273</v>
+        <v>0.1060789744797339</v>
       </c>
       <c r="G91">
-        <v>4.5371873761639848E-2</v>
+        <v>2.458400925145748E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>0.1060789744797339</v>
+        <v>1.699406528713979</v>
       </c>
       <c r="G92">
-        <v>2.458400925145748E-2</v>
+        <v>0.47534691610970609</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="F93">
-        <v>1.699406528713979</v>
+        <v>44.51332926147235</v>
       </c>
       <c r="G93">
-        <v>0.47534691610970609</v>
+        <v>7.8853141267344453</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
         <v>33</v>
@@ -4674,41 +4662,41 @@
         <v>56</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94">
-        <v>44.51332926147235</v>
+        <v>0.1446495275660083</v>
       </c>
       <c r="G94">
-        <v>7.8853141267344453</v>
+        <v>2.4715216162373061E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B95" t="s">
         <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95">
-        <v>0.1446495275660083</v>
+        <v>0.35216320754716979</v>
       </c>
       <c r="G95">
-        <v>2.4715216162373061E-2</v>
+        <v>7.7164281280900623E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
@@ -4717,113 +4705,113 @@
         <v>44</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="F96">
-        <v>0.35216320754716979</v>
+        <v>14.18104185676861</v>
       </c>
       <c r="G96">
-        <v>7.7164281280900623E-2</v>
+        <v>2.4149633393913081</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>14.18104185676861</v>
+        <v>0.9888525152326848</v>
       </c>
       <c r="G97">
-        <v>2.4149633393913081</v>
+        <v>9.4024411300743349E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F98">
-        <v>0.9888525152326848</v>
+        <v>3.7081686927854481E-4</v>
       </c>
       <c r="G98">
-        <v>9.4024411300743349E-2</v>
+        <v>6.8603628188360901E-5</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F99">
-        <v>3.7081686927854481E-4</v>
+        <v>2.10339659435434</v>
       </c>
       <c r="G99">
-        <v>6.8603628188360901E-5</v>
+        <v>0.39065367144224111</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>2.10339659435434</v>
+        <v>20.590737203073029</v>
       </c>
       <c r="G100">
-        <v>0.39065367144224111</v>
+        <v>2.7959537611357579</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
@@ -4838,61 +4826,61 @@
         <v>4</v>
       </c>
       <c r="F101">
-        <v>20.590737203073029</v>
+        <v>1359.1787395873189</v>
       </c>
       <c r="G101">
-        <v>2.7959537611357579</v>
+        <v>168.2182723233021</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102">
-        <v>1359.1787395873189</v>
+        <v>34.073465693344723</v>
       </c>
       <c r="G102">
-        <v>168.2182723233021</v>
+        <v>3.545320812414035</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F103">
-        <v>1.0427610617254881</v>
+        <v>0.1278252921437612</v>
       </c>
       <c r="G103">
-        <v>3.6782109599252169E-2</v>
+        <v>8.5516603687340362E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
@@ -4901,67 +4889,67 @@
         <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104">
-        <v>34.073465693344723</v>
+        <v>0.36949668413151621</v>
       </c>
       <c r="G104">
-        <v>3.545320812414035</v>
+        <v>7.323397860250673E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F105">
-        <v>0.1278252921437612</v>
+        <v>4.4645716304123857</v>
       </c>
       <c r="G105">
-        <v>8.5516603687340362E-2</v>
+        <v>0.86151272333246287</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="F106">
-        <v>0.36949668413151621</v>
+        <v>3.4004846495746623E-2</v>
       </c>
       <c r="G106">
-        <v>7.323397860250673E-2</v>
+        <v>5.3702245139881461E-3</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -4970,136 +4958,136 @@
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F107">
-        <v>4.4645716304123857</v>
+        <v>1.8951225973567249</v>
       </c>
       <c r="G107">
-        <v>0.86151272333246287</v>
+        <v>0.26401030197643471</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F108">
-        <v>3.4004846495746623E-2</v>
+        <v>0.33831742707444151</v>
       </c>
       <c r="G108">
-        <v>5.3702245139881461E-3</v>
+        <v>7.4593291878696316E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s">
         <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="F109">
-        <v>1.8951225973567249</v>
+        <v>1.136618299826333</v>
       </c>
       <c r="G109">
-        <v>0.26401030197643471</v>
+        <v>0.31447912988364368</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
         <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>0.33831742707444151</v>
+        <v>0.59858200629911995</v>
       </c>
       <c r="G110">
-        <v>7.4593291878696316E-2</v>
+        <v>0.14739734582393829</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F111">
-        <v>1.136618299826333</v>
+        <v>1.722587039708004E-2</v>
       </c>
       <c r="G111">
-        <v>0.31447912988364368</v>
+        <v>1.963675386878176E-3</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D112" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F112">
-        <v>0.59858200629911995</v>
+        <v>3.3970773849821918</v>
       </c>
       <c r="G112">
-        <v>0.14739734582393829</v>
+        <v>0.48441518226442881</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B113" t="s">
         <v>29</v>
@@ -5108,113 +5096,113 @@
         <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>1.722587039708004E-2</v>
+        <v>0.2032935110234598</v>
       </c>
       <c r="G113">
-        <v>1.963675386878176E-3</v>
+        <v>2.3914639881205461E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="F114">
-        <v>3.3970773849821918</v>
+        <v>0.26086056279987052</v>
       </c>
       <c r="G114">
-        <v>0.48441518226442881</v>
+        <v>0.1036196115836488</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="F115">
-        <v>0.2032935110234598</v>
+        <v>6.7582111470873922</v>
       </c>
       <c r="G115">
-        <v>2.3914639881205461E-2</v>
+        <v>9.4759356476903953</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
         <v>134</v>
       </c>
       <c r="F116">
-        <v>0.26086056279987052</v>
+        <v>6.2970773408294827</v>
       </c>
       <c r="G116">
-        <v>0.1036196115836488</v>
+        <v>2.0763905066708088</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
         <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F117">
-        <v>6.7582111470873922</v>
+        <v>3.3123312336267037E-2</v>
       </c>
       <c r="G117">
-        <v>9.4759356476903953</v>
+        <v>1.171669856025887E-2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
         <v>29</v>
@@ -5223,113 +5211,113 @@
         <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F118">
-        <v>6.2970773408294827</v>
+        <v>1.6628885291260711</v>
       </c>
       <c r="G118">
-        <v>2.0763905066708088</v>
+        <v>0.45458530796248559</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s">
         <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F119">
-        <v>3.3123312336267037E-2</v>
+        <v>2.2474810143349129</v>
       </c>
       <c r="G119">
-        <v>1.171669856025887E-2</v>
+        <v>0.197417973265962</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F120">
-        <v>1.6628885291260711</v>
+        <v>1.0527566008300711</v>
       </c>
       <c r="G120">
-        <v>0.45458530796248559</v>
+        <v>5.7080612973034607E-2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
         <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F121">
-        <v>2.2474810143349129</v>
+        <v>0.22492199099284721</v>
       </c>
       <c r="G121">
-        <v>0.197417973265962</v>
+        <v>2.9081486723105749E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F122">
-        <v>1.1949976746239661</v>
+        <v>0.40327568363111882</v>
       </c>
       <c r="G122">
-        <v>3.7696775540491813E-2</v>
+        <v>5.8944816047008922E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B123" t="s">
         <v>29</v>
@@ -5338,21 +5326,21 @@
         <v>44</v>
       </c>
       <c r="D123" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E123" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="F123">
-        <v>1.0527566008300711</v>
+        <v>0.42737656374179489</v>
       </c>
       <c r="G123">
-        <v>5.7080612973034607E-2</v>
+        <v>0.1114819667901752</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -5361,136 +5349,136 @@
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="F124">
-        <v>0.22492199099284721</v>
+        <v>7.34169428663939E-2</v>
       </c>
       <c r="G124">
-        <v>2.9081486723105749E-2</v>
+        <v>1.4571037597307081E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
       <c r="F125">
-        <v>0.40327568363111882</v>
+        <v>1.6768263621110879</v>
       </c>
       <c r="G125">
-        <v>5.8944816047008922E-2</v>
+        <v>0.28581081192120578</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="F126">
-        <v>0.42737656374179489</v>
+        <v>0.1720572542901716</v>
       </c>
       <c r="G126">
-        <v>0.1114819667901752</v>
+        <v>2.473015107235909E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E127" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="F127">
-        <v>7.34169428663939E-2</v>
+        <v>5.2830884820298477E-2</v>
       </c>
       <c r="G127">
-        <v>1.4571037597307081E-2</v>
+        <v>9.6346991842242002E-3</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B128" t="s">
         <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
       </c>
       <c r="F128">
-        <v>1.6768263621110879</v>
+        <v>0.34544606305006909</v>
       </c>
       <c r="G128">
-        <v>0.28581081192120578</v>
+        <v>0.21727835079307481</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B129" t="s">
         <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E129" t="s">
         <v>154</v>
       </c>
       <c r="F129">
-        <v>0.1720572542901716</v>
+        <v>1.352331189473994</v>
       </c>
       <c r="G129">
-        <v>2.473015107235909E-2</v>
+        <v>0.64336620077718853</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B130" t="s">
         <v>38</v>
@@ -5499,93 +5487,93 @@
         <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
         <v>155</v>
       </c>
       <c r="F130">
-        <v>5.2830884820298477E-2</v>
+        <v>0.3723424704912725</v>
       </c>
       <c r="G130">
-        <v>9.6346991842242002E-3</v>
+        <v>7.648791180680381E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B131" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E131" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="F131">
-        <v>0.34544606305006909</v>
+        <v>2.7679171400818299</v>
       </c>
       <c r="G131">
-        <v>0.21727835079307481</v>
+        <v>0.89515090455913793</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B132" t="s">
         <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F132">
-        <v>1.352331189473994</v>
+        <v>1.146540614605716</v>
       </c>
       <c r="G132">
-        <v>0.64336620077718853</v>
+        <v>1.1342676703622321</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="F133">
-        <v>0.3723424704912725</v>
+        <v>1.772158096135166E-3</v>
       </c>
       <c r="G133">
-        <v>7.648791180680381E-2</v>
+        <v>2.4858986928110631E-4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>33</v>
@@ -5597,21 +5585,21 @@
         <v>158</v>
       </c>
       <c r="F134">
-        <v>2.7679171400818299</v>
+        <v>4.5829749801312802</v>
       </c>
       <c r="G134">
-        <v>0.89515090455913793</v>
+        <v>0.73900832832596153</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
         <v>56</v>
@@ -5620,15 +5608,15 @@
         <v>159</v>
       </c>
       <c r="F135">
-        <v>1.146540614605716</v>
+        <v>0.18628113943425659</v>
       </c>
       <c r="G135">
-        <v>1.1342676703622321</v>
+        <v>3.1662742199167697E-2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B136" t="s">
         <v>29</v>
@@ -5637,67 +5625,67 @@
         <v>30</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F136">
-        <v>1.772158096135166E-3</v>
+        <v>4.8418340299649719E-2</v>
       </c>
       <c r="G136">
-        <v>2.4858986928110631E-4</v>
+        <v>6.9922990527857658E-3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E137" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F137">
-        <v>4.5829749801312802</v>
+        <v>51.218057575133187</v>
       </c>
       <c r="G137">
-        <v>0.73900832832596153</v>
+        <v>12.52246819731316</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E138" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="F138">
-        <v>0.18628113943425659</v>
+        <v>0.52992701557118893</v>
       </c>
       <c r="G138">
-        <v>3.1662742199167697E-2</v>
+        <v>0.1257358322941331</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B139" t="s">
         <v>29</v>
@@ -5706,113 +5694,113 @@
         <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="F139">
-        <v>4.8418340299649719E-2</v>
+        <v>1.860328569746563</v>
       </c>
       <c r="G139">
-        <v>6.9922990527857658E-3</v>
+        <v>0.57470049744908602</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E140" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F140">
-        <v>51.218057575133187</v>
+        <v>9.1326790392370402E-3</v>
       </c>
       <c r="G140">
-        <v>12.52246819731316</v>
+        <v>1.5521371999989259E-3</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E141" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="F141">
-        <v>0.52992701557118893</v>
+        <v>0.21615615341594799</v>
       </c>
       <c r="G141">
-        <v>0.1257358322941331</v>
+        <v>2.9241183274776851E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E142" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F142">
-        <v>1.860328569746563</v>
+        <v>2.534193079798663E-2</v>
       </c>
       <c r="G142">
-        <v>0.57470049744908602</v>
+        <v>3.672511121139943E-3</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F143">
-        <v>9.1326790392370402E-3</v>
+        <v>5.0454322550260496E-3</v>
       </c>
       <c r="G143">
-        <v>1.5521371999989259E-3</v>
+        <v>9.9260164321660267E-4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B144" t="s">
         <v>38</v>
@@ -5827,84 +5815,84 @@
         <v>164</v>
       </c>
       <c r="F144">
-        <v>0.21615615341594799</v>
+        <v>4.3416945368380767E-3</v>
       </c>
       <c r="G144">
-        <v>2.9241183274776851E-2</v>
+        <v>8.8036493836191987E-4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="F145">
-        <v>2.534193079798663E-2</v>
+        <v>0.17920143054778789</v>
       </c>
       <c r="G145">
-        <v>3.672511121139943E-3</v>
+        <v>2.9956484998731069E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B146" t="s">
         <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F146">
-        <v>5.0454322550260496E-3</v>
+        <v>2.3893580490389432E-2</v>
       </c>
       <c r="G146">
-        <v>9.9260164321660267E-4</v>
+        <v>3.271532768198328E-3</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="F147">
-        <v>4.3416945368380767E-3</v>
+        <v>3.1932723044770852</v>
       </c>
       <c r="G147">
-        <v>8.8036493836191987E-4</v>
+        <v>0.46140633491139249</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
@@ -5913,90 +5901,90 @@
         <v>30</v>
       </c>
       <c r="D148" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="F148">
-        <v>0.17920143054778789</v>
+        <v>0.99037297265475543</v>
       </c>
       <c r="G148">
-        <v>2.9956484998731069E-2</v>
+        <v>0.27841564046517009</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
         <v>30</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E149" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="F149">
-        <v>2.3893580490389432E-2</v>
+        <v>1.075518323374445</v>
       </c>
       <c r="G149">
-        <v>3.271532768198328E-3</v>
+        <v>0.17312605025916239</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B150" t="s">
         <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E150" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="F150">
-        <v>3.1932723044770852</v>
+        <v>3.6360044888587989E-3</v>
       </c>
       <c r="G150">
-        <v>0.46140633491139249</v>
+        <v>5.3612052316223387E-4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>0.99037297265475543</v>
+        <v>0.1840342978247432</v>
       </c>
       <c r="G151">
-        <v>0.27841564046517009</v>
+        <v>3.0574983529153971E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B152" t="s">
         <v>38</v>
@@ -6005,44 +5993,44 @@
         <v>30</v>
       </c>
       <c r="D152" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E152" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F152">
-        <v>1.075518323374445</v>
+        <v>0.69839000088305425</v>
       </c>
       <c r="G152">
-        <v>0.17312605025916239</v>
+        <v>0.1551420255651918</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B153" t="s">
         <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="F153">
-        <v>3.6360044888587989E-3</v>
+        <v>77.991815117887739</v>
       </c>
       <c r="G153">
-        <v>5.3612052316223387E-4</v>
+        <v>11.736137451979779</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B154" t="s">
         <v>38</v>
@@ -6051,44 +6039,44 @@
         <v>33</v>
       </c>
       <c r="D154" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="F154">
-        <v>0.1840342978247432</v>
+        <v>30.40761236864569</v>
       </c>
       <c r="G154">
-        <v>3.0574983529153971E-2</v>
+        <v>5.2475722484961951</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E155" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="F155">
-        <v>0.69839000088305425</v>
+        <v>4.424829280605187</v>
       </c>
       <c r="G155">
-        <v>0.1551420255651918</v>
+        <v>1.2542593159843991</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B156" t="s">
         <v>29</v>
@@ -6097,67 +6085,67 @@
         <v>30</v>
       </c>
       <c r="D156" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E156" t="s">
         <v>4</v>
       </c>
       <c r="F156">
-        <v>77.991815117887739</v>
+        <v>1.467262414270156</v>
       </c>
       <c r="G156">
-        <v>11.736137451979779</v>
+        <v>0.46729390293995399</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E157" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F157">
-        <v>30.40761236864569</v>
+        <v>1.9329212904365229E-3</v>
       </c>
       <c r="G157">
-        <v>5.2475722484961951</v>
+        <v>6.2913373637326362E-4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="E158" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F158">
-        <v>4.424829280605187</v>
+        <v>6.5344778500573981E-3</v>
       </c>
       <c r="G158">
-        <v>1.2542593159843991</v>
+        <v>1.076618712375129E-3</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -6166,182 +6154,182 @@
         <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E159" t="s">
         <v>4</v>
       </c>
       <c r="F159">
-        <v>1.467262414270156</v>
+        <v>6.7443219174049984</v>
       </c>
       <c r="G159">
-        <v>0.46729390293995399</v>
+        <v>0.6962733734527764</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B160" t="s">
         <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D160" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="E160" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F160">
-        <v>1.9329212904365229E-3</v>
+        <v>0.81851905925293611</v>
       </c>
       <c r="G160">
-        <v>6.2913373637326362E-4</v>
+        <v>0.1414590847355488</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B161" t="s">
         <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E161" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>6.5344778500573981E-3</v>
+        <v>0.42844226886056569</v>
       </c>
       <c r="G161">
-        <v>1.076618712375129E-3</v>
+        <v>0.1007632851292861</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E162" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F162">
-        <v>6.7443219174049984</v>
+        <v>7.1469789244399964</v>
       </c>
       <c r="G162">
-        <v>0.6962733734527764</v>
+        <v>1.560934424732437</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D163" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E163" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F163">
-        <v>0.81851905925293611</v>
+        <v>0.25785341889147267</v>
       </c>
       <c r="G163">
-        <v>0.1414590847355488</v>
+        <v>4.7997308612091463E-2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F164">
-        <v>0.42844226886056569</v>
+        <v>0.84892346863685852</v>
       </c>
       <c r="G164">
-        <v>0.1007632851292861</v>
+        <v>0.10383242705264691</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F165">
-        <v>7.1469789244399964</v>
+        <v>71.531494863568128</v>
       </c>
       <c r="G165">
-        <v>1.560934424732437</v>
+        <v>13.48424630368053</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E166" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F166">
-        <v>0.25785341889147267</v>
+        <v>8.1848729873723255E-2</v>
       </c>
       <c r="G166">
-        <v>4.7997308612091463E-2</v>
+        <v>1.4207829102203581E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B167" t="s">
         <v>38</v>
@@ -6350,21 +6338,21 @@
         <v>33</v>
       </c>
       <c r="D167" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E167" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F167">
-        <v>0.84892346863685852</v>
+        <v>1.8577688487916879</v>
       </c>
       <c r="G167">
-        <v>0.10383242705264691</v>
+        <v>0.4425726966427449</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -6373,274 +6361,274 @@
         <v>33</v>
       </c>
       <c r="D168" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E168" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="F168">
-        <v>71.531494863568128</v>
+        <v>1.85075526447473E-4</v>
       </c>
       <c r="G168">
-        <v>13.48424630368053</v>
+        <v>3.7410226872041433E-5</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F169">
-        <v>8.1848729873723255E-2</v>
+        <v>0.41374314308421389</v>
       </c>
       <c r="G169">
-        <v>1.4207829102203581E-2</v>
+        <v>0.52694205065609645</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D170" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E170" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="F170">
-        <v>1.8577688487916879</v>
+        <v>0.50949910664351106</v>
       </c>
       <c r="G170">
-        <v>0.4425726966427449</v>
+        <v>0.1560678008395367</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D171" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="F171">
-        <v>1.85075526447473E-4</v>
+        <v>2.778181953315868</v>
       </c>
       <c r="G171">
-        <v>3.7410226872041433E-5</v>
+        <v>0.98676825972704085</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="F172">
-        <v>0.41374314308421389</v>
+        <v>0.9150597901274542</v>
       </c>
       <c r="G172">
-        <v>0.52694205065609645</v>
+        <v>0.1234270998683859</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B173" t="s">
         <v>29</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D173" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E173" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F173">
-        <v>0.50949910664351106</v>
+        <v>2.7866254967179819E-3</v>
       </c>
       <c r="G173">
-        <v>0.1560678008395367</v>
+        <v>3.6828684278197041E-4</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B174" t="s">
         <v>29</v>
       </c>
       <c r="C174" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D174" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E174" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F174">
-        <v>2.778181953315868</v>
+        <v>0.49135357489771281</v>
       </c>
       <c r="G174">
-        <v>0.98676825972704085</v>
+        <v>8.0103932355140198E-2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D175" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F175">
-        <v>0.9150597901274542</v>
+        <v>0.43692342448414928</v>
       </c>
       <c r="G175">
-        <v>0.1234270998683859</v>
+        <v>0.14770444265346691</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s">
         <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D176" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E176" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="F176">
-        <v>2.7866254967179819E-3</v>
+        <v>2.5303566950225179E-2</v>
       </c>
       <c r="G176">
-        <v>3.6828684278197041E-4</v>
+        <v>6.1554125597932273E-3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" t="s">
         <v>29</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E177" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F177">
-        <v>0.49135357489771281</v>
+        <v>9.6552563800665236E-2</v>
       </c>
       <c r="G177">
-        <v>8.0103932355140198E-2</v>
+        <v>3.00607387932985E-2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E178" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="F178">
-        <v>0.43692342448414928</v>
+        <v>0.57220601654254843</v>
       </c>
       <c r="G178">
-        <v>0.14770444265346691</v>
+        <v>0.1004231027113382</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B179" t="s">
         <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D179" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E179" t="s">
         <v>4</v>
       </c>
       <c r="F179">
-        <v>2.5303566950225179E-2</v>
+        <v>0.15054327745562651</v>
       </c>
       <c r="G179">
-        <v>6.1554125597932273E-3</v>
+        <v>3.1099023541022501E-2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B180" t="s">
         <v>29</v>
@@ -6649,228 +6637,228 @@
         <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E180" t="s">
         <v>4</v>
       </c>
       <c r="F180">
-        <v>9.6552563800665236E-2</v>
+        <v>703.10474494451478</v>
       </c>
       <c r="G180">
-        <v>3.00607387932985E-2</v>
+        <v>149.3222070791756</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C181" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D181" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E181" t="s">
         <v>4</v>
       </c>
       <c r="F181">
-        <v>0.57220601654254843</v>
+        <v>21.340663320872459</v>
       </c>
       <c r="G181">
-        <v>0.1004231027113382</v>
+        <v>2.7501768818394612</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E182" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="F182">
-        <v>0.15054327745562651</v>
+        <v>0.95392112854325495</v>
       </c>
       <c r="G182">
-        <v>3.1099023541022501E-2</v>
+        <v>0.25253268571903331</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B183" t="s">
         <v>29</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E183" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="F183">
-        <v>703.10474494451478</v>
+        <v>8.3954984840903055</v>
       </c>
       <c r="G183">
-        <v>149.3222070791756</v>
+        <v>1.5131787325879591</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B184" t="s">
         <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D184" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="F184">
-        <v>21.340663320872459</v>
+        <v>0.83003252582933507</v>
       </c>
       <c r="G184">
-        <v>2.7501768818394612</v>
+        <v>0.1409698007011797</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B185" t="s">
         <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D185" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E185" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F185">
-        <v>0.95392112854325495</v>
+        <v>5.060440644040856</v>
       </c>
       <c r="G185">
-        <v>0.25253268571903331</v>
+        <v>2.0023350367562971</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D186" t="s">
         <v>56</v>
       </c>
       <c r="E186" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F186">
-        <v>8.3954984840903055</v>
+        <v>2.1051426279692702</v>
       </c>
       <c r="G186">
-        <v>1.5131787325879591</v>
+        <v>0.62401655856320604</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D187" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F187">
-        <v>0.83003252582933507</v>
+        <v>1.744897065316575</v>
       </c>
       <c r="G187">
-        <v>0.1409698007011797</v>
+        <v>0.45129900308027449</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B188" t="s">
         <v>38</v>
       </c>
       <c r="C188" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D188" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E188" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="F188">
-        <v>5.060440644040856</v>
+        <v>7.3657542754540346</v>
       </c>
       <c r="G188">
-        <v>2.0023350367562971</v>
+        <v>0.83192343754164344</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C189" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D189" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E189" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F189">
-        <v>2.1051426279692702</v>
+        <v>0.76726191387278131</v>
       </c>
       <c r="G189">
-        <v>0.62401655856320604</v>
+        <v>0.1176091892279761</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B190" t="s">
         <v>38</v>
@@ -6879,136 +6867,136 @@
         <v>33</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E190" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="F190">
-        <v>1.744897065316575</v>
+        <v>8.8780920142466094E-2</v>
       </c>
       <c r="G190">
-        <v>0.45129900308027449</v>
+        <v>1.138815800246756E-2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E191" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>7.3657542754540346</v>
+        <v>14.074427045006329</v>
       </c>
       <c r="G191">
-        <v>0.83192343754164344</v>
+        <v>2.232900175463262</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D192" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E192" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="F192">
-        <v>0.76726191387278131</v>
+        <v>0.20706604656639099</v>
       </c>
       <c r="G192">
-        <v>0.1176091892279761</v>
+        <v>2.8571433144112039E-2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D193" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E193" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F193">
-        <v>8.8780920142466094E-2</v>
+        <v>0.19860655226209051</v>
       </c>
       <c r="G193">
-        <v>1.138815800246756E-2</v>
+        <v>7.9217813587745656E-2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B194" t="s">
         <v>29</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F194">
-        <v>14.074427045006329</v>
+        <v>3.0222658728990668</v>
       </c>
       <c r="G194">
-        <v>2.232900175463262</v>
+        <v>0.53640606501312371</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="F195">
-        <v>0.20706604656639099</v>
+        <v>0.11381279398345751</v>
       </c>
       <c r="G195">
-        <v>2.8571433144112039E-2</v>
+        <v>2.0812643501163131E-2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
         <v>29</v>
@@ -7017,205 +7005,205 @@
         <v>30</v>
       </c>
       <c r="D196" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E196" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F196">
-        <v>0.19860655226209051</v>
+        <v>3.4725972095487598E-2</v>
       </c>
       <c r="G196">
-        <v>7.9217813587745656E-2</v>
+        <v>5.0237740488160718E-3</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B197" t="s">
         <v>29</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E197" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F197">
-        <v>3.0222658728990668</v>
+        <v>1.302446339740382</v>
       </c>
       <c r="G197">
-        <v>0.53640606501312371</v>
+        <v>0.2304349635698911</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D198" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E198" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="F198">
-        <v>0.11381279398345751</v>
+        <v>1.5761043328525591E-2</v>
       </c>
       <c r="G198">
-        <v>2.0812643501163131E-2</v>
+        <v>3.9598956561387802E-3</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D199" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E199" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F199">
-        <v>3.4725972095487598E-2</v>
+        <v>0.18964816619079861</v>
       </c>
       <c r="G199">
-        <v>5.0237740488160718E-3</v>
+        <v>2.421047508746417E-2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B200" t="s">
         <v>29</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D200" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F200">
-        <v>1.302446339740382</v>
+        <v>3.734210843905455E-3</v>
       </c>
       <c r="G200">
-        <v>0.2304349635698911</v>
+        <v>5.3645918433377121E-4</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D201" t="s">
         <v>56</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>1.5761043328525591E-2</v>
+        <v>1.233927707296971</v>
       </c>
       <c r="G201">
-        <v>3.9598956561387802E-3</v>
+        <v>0.56027050255048572</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D202" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F202">
-        <v>0.18964816619079861</v>
+        <v>0.93164234833544279</v>
       </c>
       <c r="G202">
-        <v>2.421047508746417E-2</v>
+        <v>0.1282122116095045</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D203" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E203" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="F203">
-        <v>3.734210843905455E-3</v>
+        <v>0.8507395137314927</v>
       </c>
       <c r="G203">
-        <v>5.3645918433377121E-4</v>
+        <v>0.41304286677731028</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
         <v>29</v>
       </c>
       <c r="C204" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E204" t="s">
         <v>4</v>
       </c>
       <c r="F204">
-        <v>1.233927707296971</v>
+        <v>8.3576033909280895E-2</v>
       </c>
       <c r="G204">
-        <v>0.56027050255048572</v>
+        <v>9.956919466139056E-3</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
         <v>29</v>
@@ -7224,44 +7212,44 @@
         <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E205" t="s">
         <v>4</v>
       </c>
       <c r="F205">
-        <v>0.93164234833544279</v>
+        <v>1778.376755070203</v>
       </c>
       <c r="G205">
-        <v>0.1282122116095045</v>
+        <v>90.484046469710663</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="F206">
-        <v>0.8507395137314927</v>
+        <v>2.329277440908957E-2</v>
       </c>
       <c r="G206">
-        <v>0.41304286677731028</v>
+        <v>3.5448500383253138E-3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
         <v>29</v>
@@ -7270,67 +7258,67 @@
         <v>30</v>
       </c>
       <c r="D207" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E207" t="s">
         <v>4</v>
       </c>
       <c r="F207">
-        <v>8.3576033909280895E-2</v>
+        <v>0.48490610190445349</v>
       </c>
       <c r="G207">
-        <v>9.956919466139056E-3</v>
+        <v>8.7074049964829467E-2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E208" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="F208">
-        <v>1778.376755070203</v>
+        <v>0.15027978983310281</v>
       </c>
       <c r="G208">
-        <v>90.484046469710663</v>
+        <v>3.5194058007346547E-2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
         <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D209" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="E209" t="s">
         <v>4</v>
       </c>
       <c r="F209">
-        <v>2.329277440908957E-2</v>
+        <v>0.21687872722456061</v>
       </c>
       <c r="G209">
-        <v>3.5448500383253138E-3</v>
+        <v>5.1345558481002473E-2</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
         <v>29</v>
@@ -7339,297 +7327,297 @@
         <v>30</v>
       </c>
       <c r="D210" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E210" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F210">
-        <v>0.48490610190445349</v>
+        <v>0.39303206958467007</v>
       </c>
       <c r="G210">
-        <v>8.7074049964829467E-2</v>
+        <v>4.6171955167172242E-2</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D211" t="s">
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="F211">
-        <v>0.15027978983310281</v>
+        <v>8.9995084331675156E-3</v>
       </c>
       <c r="G211">
-        <v>3.5194058007346547E-2</v>
+        <v>1.309422539852344E-3</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B212" t="s">
         <v>29</v>
       </c>
       <c r="C212" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D212" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F212">
-        <v>0.21687872722456061</v>
+        <v>3.5272907043828918</v>
       </c>
       <c r="G212">
-        <v>5.1345558481002473E-2</v>
+        <v>0.78090831234066516</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B213" t="s">
         <v>29</v>
       </c>
       <c r="C213" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E213" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="F213">
-        <v>0.39303206958467007</v>
+        <v>0.15984554646336799</v>
       </c>
       <c r="G213">
-        <v>4.6171955167172242E-2</v>
+        <v>2.728398202786228E-2</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B214" t="s">
         <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D214" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E214" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F214">
-        <v>8.9995084331675156E-3</v>
+        <v>4.6457533923998477</v>
       </c>
       <c r="G214">
-        <v>1.309422539852344E-3</v>
+        <v>0.58008719740849535</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B215" t="s">
         <v>29</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D215" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E215" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F215">
-        <v>3.5272907043828918</v>
+        <v>0.64789786889588796</v>
       </c>
       <c r="G215">
-        <v>0.78090831234066516</v>
+        <v>0.21346103255481119</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
         <v>29</v>
       </c>
       <c r="C216" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D216" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F216">
-        <v>0.15984554646336799</v>
+        <v>6.124363170753246</v>
       </c>
       <c r="G216">
-        <v>2.728398202786228E-2</v>
+        <v>0.60025237532404918</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B217" t="s">
         <v>29</v>
       </c>
       <c r="C217" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="E217" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F217">
-        <v>4.6457533923998477</v>
+        <v>0.40688593883377983</v>
       </c>
       <c r="G217">
-        <v>0.58008719740849535</v>
+        <v>5.8883694841783879E-2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B218" t="s">
         <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D218" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="E218" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="F218">
-        <v>0.64789786889588796</v>
+        <v>3.515407971035823</v>
       </c>
       <c r="G218">
-        <v>0.21346103255481119</v>
+        <v>0.61634047031011108</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B219" t="s">
         <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E219" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="F219">
-        <v>6.124363170753246</v>
+        <v>7.745569717128308E-3</v>
       </c>
       <c r="G219">
-        <v>0.60025237532404918</v>
+        <v>1.058265929660205E-3</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B220" t="s">
         <v>29</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E220" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="F220">
-        <v>0.40688593883377983</v>
+        <v>7.7721318547081513E-3</v>
       </c>
       <c r="G220">
-        <v>5.8883694841783879E-2</v>
+        <v>3.3655630534930939E-3</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
         <v>29</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D221" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="E221" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="F221">
-        <v>3.515407971035823</v>
+        <v>133.79940688193571</v>
       </c>
       <c r="G221">
-        <v>0.61634047031011108</v>
+        <v>24.693743535263589</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B222" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E222" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="F222">
-        <v>7.745569717128308E-3</v>
+        <v>2.347891737556294</v>
       </c>
       <c r="G222">
-        <v>1.058265929660205E-3</v>
+        <v>0.33647713465495988</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B223" t="s">
         <v>29</v>
@@ -7638,67 +7626,67 @@
         <v>30</v>
       </c>
       <c r="D223" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E223" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="F223">
-        <v>7.7721318547081513E-3</v>
+        <v>54.775153798604769</v>
       </c>
       <c r="G223">
-        <v>3.3655630534930939E-3</v>
+        <v>6.0090678572024183</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D224" t="s">
         <v>56</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F224">
-        <v>133.79940688193571</v>
+        <v>1.741538545315398</v>
       </c>
       <c r="G224">
-        <v>24.693743535263589</v>
+        <v>0.20785128575573661</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D225" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E225" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F225">
-        <v>2.347891737556294</v>
+        <v>0.12493101580667</v>
       </c>
       <c r="G225">
-        <v>0.33647713465495988</v>
+        <v>2.1448541659561081E-2</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B226" t="s">
         <v>29</v>
@@ -7707,67 +7695,67 @@
         <v>30</v>
       </c>
       <c r="D226" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E226" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="F226">
-        <v>54.775153798604769</v>
+        <v>0.26974417331410239</v>
       </c>
       <c r="G226">
-        <v>6.0090678572024183</v>
+        <v>0.13484494332858801</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D227" t="s">
         <v>56</v>
       </c>
       <c r="E227" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="F227">
-        <v>1.741538545315398</v>
+        <v>3.613204294586878E-3</v>
       </c>
       <c r="G227">
-        <v>0.20785128575573661</v>
+        <v>1.3075366874184121E-3</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B228" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D228" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E228" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F228">
-        <v>0.12493101580667</v>
+        <v>2.6145912930856861E-2</v>
       </c>
       <c r="G228">
-        <v>2.1448541659561081E-2</v>
+        <v>3.4164851278851902E-3</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B229" t="s">
         <v>29</v>
@@ -7776,67 +7764,67 @@
         <v>30</v>
       </c>
       <c r="D229" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E229" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F229">
-        <v>0.26974417331410239</v>
+        <v>9.0263902981779637E-2</v>
       </c>
       <c r="G229">
-        <v>0.13484494332858801</v>
+        <v>2.169545818302682E-2</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D230" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E230" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F230">
-        <v>3.613204294586878E-3</v>
+        <v>9.6978456421275727E-2</v>
       </c>
       <c r="G230">
-        <v>1.3075366874184121E-3</v>
+        <v>1.126910146529532E-2</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B231" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D231" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E231" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="F231">
-        <v>2.6145912930856861E-2</v>
+        <v>0.60012255320401497</v>
       </c>
       <c r="G231">
-        <v>3.4164851278851902E-3</v>
+        <v>0.30729713216095911</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
@@ -7845,21 +7833,21 @@
         <v>30</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E232" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="F232">
-        <v>9.0263902981779637E-2</v>
+        <v>4.8477637388514419E-2</v>
       </c>
       <c r="G232">
-        <v>2.169545818302682E-2</v>
+        <v>8.9803317637857961E-3</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B233" t="s">
         <v>29</v>
@@ -7868,182 +7856,182 @@
         <v>30</v>
       </c>
       <c r="D233" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E233" t="s">
         <v>4</v>
       </c>
       <c r="F233">
-        <v>9.6978456421275727E-2</v>
+        <v>4.4177450916904606E-3</v>
       </c>
       <c r="G233">
-        <v>1.126910146529532E-2</v>
+        <v>1.205572985381058E-3</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B234" t="s">
         <v>29</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D234" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E234" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F234">
-        <v>0.60012255320401497</v>
+        <v>1.4549871221263939</v>
       </c>
       <c r="G234">
-        <v>0.30729713216095911</v>
+        <v>0.2079981180058072</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D235" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="E235" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F235">
-        <v>4.8477637388514419E-2</v>
+        <v>2.4878164571865889E-2</v>
       </c>
       <c r="G235">
-        <v>8.9803317637857961E-3</v>
+        <v>4.6978489080549352E-3</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B236" t="s">
         <v>29</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D236" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E236" t="s">
         <v>4</v>
       </c>
       <c r="F236">
-        <v>4.4177450916904606E-3</v>
+        <v>0.63293475554116496</v>
       </c>
       <c r="G236">
-        <v>1.205572985381058E-3</v>
+        <v>0.13954478572224829</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B237" t="s">
         <v>29</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D237" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="E237" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="F237">
-        <v>1.4549871221263939</v>
+        <v>7.5100599152267993</v>
       </c>
       <c r="G237">
-        <v>0.2079981180058072</v>
+        <v>2.9021125863035628</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B238" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C238" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D238" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="E238" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F238">
-        <v>2.4878164571865889E-2</v>
+        <v>2.8024950696141052E-3</v>
       </c>
       <c r="G238">
-        <v>4.6978489080549352E-3</v>
+        <v>4.0733242791344838E-4</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B239" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D239" t="s">
         <v>92</v>
       </c>
       <c r="E239" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="F239">
-        <v>0.63293475554116496</v>
+        <v>0.76563715303329105</v>
       </c>
       <c r="G239">
-        <v>0.13954478572224829</v>
+        <v>0.10614597895090599</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B240" t="s">
         <v>29</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D240" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E240" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F240">
-        <v>7.5100599152267993</v>
+        <v>0.44413380625791071</v>
       </c>
       <c r="G240">
-        <v>2.9021125863035628</v>
+        <v>7.7455469730082702E-2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B241" t="s">
         <v>29</v>
@@ -8052,297 +8040,297 @@
         <v>44</v>
       </c>
       <c r="D241" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E241" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F241">
-        <v>2.8024950696141052E-3</v>
+        <v>9.9990365878786113E-6</v>
       </c>
       <c r="G241">
-        <v>4.0733242791344838E-4</v>
+        <v>1.562551832344306E-6</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D242" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E242" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F242">
-        <v>0.76563715303329105</v>
+        <v>2.9361546816589649E-2</v>
       </c>
       <c r="G242">
-        <v>0.10614597895090599</v>
+        <v>6.0590042005024998E-3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B243" t="s">
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D243" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E243" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F243">
-        <v>0.44413380625791071</v>
+        <v>2.722567892149648E-3</v>
       </c>
       <c r="G243">
-        <v>7.7455469730082702E-2</v>
+        <v>4.565202413887256E-4</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B244" t="s">
         <v>29</v>
       </c>
       <c r="C244" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D244" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="E244" t="s">
         <v>4</v>
       </c>
       <c r="F244">
-        <v>9.9990365878786113E-6</v>
+        <v>2.357712448120567E-2</v>
       </c>
       <c r="G244">
-        <v>1.562551832344306E-6</v>
+        <v>4.8605112153372503E-3</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B245" t="s">
         <v>29</v>
       </c>
       <c r="C245" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D245" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E245" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F245">
-        <v>2.9361546816589649E-2</v>
+        <v>1.998600241368145</v>
       </c>
       <c r="G245">
-        <v>6.0590042005024998E-3</v>
+        <v>0.38173654949871438</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B246" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D246" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E246" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="F246">
-        <v>2.722567892149648E-3</v>
+        <v>19.617021899743911</v>
       </c>
       <c r="G246">
-        <v>4.565202413887256E-4</v>
+        <v>7.6860773447729764</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B247" t="s">
         <v>29</v>
       </c>
       <c r="C247" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D247" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E247" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F247">
-        <v>2.357712448120567E-2</v>
+        <v>6.9976063197244877E-4</v>
       </c>
       <c r="G247">
-        <v>4.8605112153372503E-3</v>
+        <v>1.2771196119480951E-4</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B248" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
       </c>
       <c r="D248" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E248" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="F248">
-        <v>1.998600241368145</v>
+        <v>0.37718961704883291</v>
       </c>
       <c r="G248">
-        <v>0.38173654949871438</v>
+        <v>0.2254738287717554</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B249" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C249" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D249" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E249" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F249">
-        <v>19.617021899743911</v>
+        <v>12.284635445795191</v>
       </c>
       <c r="G249">
-        <v>7.6860773447729764</v>
+        <v>4.1242908101637044</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B250" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D250" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="E250" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F250">
-        <v>6.9976063197244877E-4</v>
+        <v>0.18656275130250499</v>
       </c>
       <c r="G250">
-        <v>1.2771196119480951E-4</v>
+        <v>2.96794239409615E-2</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B251" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
         <v>30</v>
       </c>
       <c r="D251" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E251" t="s">
         <v>4</v>
       </c>
       <c r="F251">
-        <v>0.37718961704883291</v>
+        <v>0.45369097960144822</v>
       </c>
       <c r="G251">
-        <v>0.2254738287717554</v>
+        <v>9.5886081673644374E-2</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B252" t="s">
         <v>29</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D252" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E252" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F252">
-        <v>12.284635445795191</v>
+        <v>5.2941323403879548E-3</v>
       </c>
       <c r="G252">
-        <v>4.1242908101637044</v>
+        <v>1.028410987597187E-3</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B253" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C253" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D253" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="E253" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="F253">
-        <v>0.18656275130250499</v>
+        <v>0.3435551997174226</v>
       </c>
       <c r="G253">
-        <v>2.96794239409615E-2</v>
+        <v>6.4127099270780599E-2</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
@@ -8351,67 +8339,67 @@
         <v>30</v>
       </c>
       <c r="D254" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E254" t="s">
         <v>4</v>
       </c>
       <c r="F254">
-        <v>0.45369097960144822</v>
+        <v>3.4215057104170957E-2</v>
       </c>
       <c r="G254">
-        <v>9.5886081673644374E-2</v>
+        <v>6.2789952923872176E-3</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B255" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D255" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="E255" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F255">
-        <v>5.2941323403879548E-3</v>
+        <v>0.48451648367821509</v>
       </c>
       <c r="G255">
-        <v>1.028410987597187E-3</v>
+        <v>5.8068321019931611E-2</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D256" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E256" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F256">
-        <v>0.3435551997174226</v>
+        <v>0.26338108203573429</v>
       </c>
       <c r="G256">
-        <v>6.4127099270780599E-2</v>
+        <v>3.552025161506614E-2</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B257" t="s">
         <v>29</v>
@@ -8420,113 +8408,113 @@
         <v>30</v>
       </c>
       <c r="D257" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E257" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F257">
-        <v>3.4215057104170957E-2</v>
+        <v>5.6872245606805396E-3</v>
       </c>
       <c r="G257">
-        <v>6.2789952923872176E-3</v>
+        <v>5.734018882727033E-4</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B258" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C258" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D258" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E258" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F258">
-        <v>0.48451648367821509</v>
+        <v>0.1063845082859918</v>
       </c>
       <c r="G258">
-        <v>5.8068321019931611E-2</v>
+        <v>1.7801519963090741E-2</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B259" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D259" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E259" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="F259">
-        <v>0.26338108203573429</v>
+        <v>1.2699856356518411</v>
       </c>
       <c r="G259">
-        <v>3.552025161506614E-2</v>
+        <v>0.2297299908597181</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B260" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D260" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E260" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="F260">
-        <v>5.6872245606805396E-3</v>
+        <v>0.26245185882907007</v>
       </c>
       <c r="G260">
-        <v>5.734018882727033E-4</v>
+        <v>4.217036423996981E-2</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D261" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E261" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F261">
-        <v>0.1063845082859918</v>
+        <v>0.12742797221322821</v>
       </c>
       <c r="G261">
-        <v>1.7801519963090741E-2</v>
+        <v>2.1168422192969751E-2</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B262" t="s">
         <v>29</v>
@@ -8535,67 +8523,67 @@
         <v>30</v>
       </c>
       <c r="D262" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E262" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="F262">
-        <v>1.2699856356518411</v>
+        <v>2.35891089983222E-2</v>
       </c>
       <c r="G262">
-        <v>0.2297299908597181</v>
+        <v>9.9720155608687272E-3</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D263" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E263" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F263">
-        <v>0.26245185882907007</v>
+        <v>4.5547717304918613E-2</v>
       </c>
       <c r="G263">
-        <v>4.217036423996981E-2</v>
+        <v>8.2021821570217295E-3</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C264" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D264" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E264" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F264">
-        <v>0.12742797221322821</v>
+        <v>0.9372311247166869</v>
       </c>
       <c r="G264">
-        <v>2.1168422192969751E-2</v>
+        <v>0.14161054656240041</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B265" t="s">
         <v>29</v>
@@ -8604,67 +8592,67 @@
         <v>30</v>
       </c>
       <c r="D265" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E265" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="F265">
-        <v>2.35891089983222E-2</v>
+        <v>0.26838552674182442</v>
       </c>
       <c r="G265">
-        <v>9.9720155608687272E-3</v>
+        <v>5.2655618573504398E-2</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B266" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D266" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E266" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F266">
-        <v>4.5547717304918613E-2</v>
+        <v>1.699621434668707E-2</v>
       </c>
       <c r="G266">
-        <v>8.2021821570217295E-3</v>
+        <v>3.526147483349167E-3</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D267" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E267" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F267">
-        <v>0.9372311247166869</v>
+        <v>0.33921977305507323</v>
       </c>
       <c r="G267">
-        <v>0.14161054656240041</v>
+        <v>5.9988566228254658E-2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B268" t="s">
         <v>29</v>
@@ -8673,67 +8661,67 @@
         <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F268">
-        <v>0.26838552674182442</v>
+        <v>5.1780809760692312</v>
       </c>
       <c r="G268">
-        <v>5.2655618573504398E-2</v>
+        <v>0.86065041923280239</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B269" t="s">
         <v>29</v>
       </c>
       <c r="C269" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D269" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E269" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="F269">
-        <v>1.699621434668707E-2</v>
+        <v>14.074253377682281</v>
       </c>
       <c r="G269">
-        <v>3.526147483349167E-3</v>
+        <v>1.853641415516796</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B270" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C270" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D270" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E270" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="F270">
-        <v>0.33921977305507323</v>
+        <v>0.132196077767639</v>
       </c>
       <c r="G270">
-        <v>5.9988566228254658E-2</v>
+        <v>0.10777187964905439</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B271" t="s">
         <v>29</v>
@@ -8742,67 +8730,67 @@
         <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E271" t="s">
         <v>4</v>
       </c>
       <c r="F271">
-        <v>5.1780809760692312</v>
+        <v>2.9640045330115092E-3</v>
       </c>
       <c r="G271">
-        <v>0.86065041923280239</v>
+        <v>4.0177297701429401E-4</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D272" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E272" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F272">
-        <v>14.074253377682281</v>
+        <v>5.7587632237364968E-2</v>
       </c>
       <c r="G272">
-        <v>1.853641415516796</v>
+        <v>4.6243853658605883E-3</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D273" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="E273" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="F273">
-        <v>0.132196077767639</v>
+        <v>3.4128862626203162E-2</v>
       </c>
       <c r="G273">
-        <v>0.10777187964905439</v>
+        <v>5.5354360067973877E-3</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
@@ -8811,67 +8799,67 @@
         <v>30</v>
       </c>
       <c r="D274" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E274" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F274">
-        <v>2.9640045330115092E-3</v>
+        <v>1.610423562829306</v>
       </c>
       <c r="G274">
-        <v>4.0177297701429401E-4</v>
+        <v>0.44372410093086878</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B275" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C275" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D275" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E275" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F275">
-        <v>5.7587632237364968E-2</v>
+        <v>0.30322175256821587</v>
       </c>
       <c r="G275">
-        <v>4.6243853658605883E-3</v>
+        <v>3.00485940720399E-2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
       </c>
       <c r="C276" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D276" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="E276" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="F276">
-        <v>3.4128862626203162E-2</v>
+        <v>1.8533919436022721</v>
       </c>
       <c r="G276">
-        <v>5.5354360067973877E-3</v>
+        <v>0.26020878121344498</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -8880,21 +8868,21 @@
         <v>30</v>
       </c>
       <c r="D277" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E277" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="F277">
-        <v>1.610423562829306</v>
+        <v>4.8165924263385644</v>
       </c>
       <c r="G277">
-        <v>0.44372410093086878</v>
+        <v>0.84546451817613177</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -8903,113 +8891,113 @@
         <v>30</v>
       </c>
       <c r="D278" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E278" t="s">
         <v>4</v>
       </c>
       <c r="F278">
-        <v>0.30322175256821587</v>
+        <v>6.0766859270597244</v>
       </c>
       <c r="G278">
-        <v>3.00485940720399E-2</v>
+        <v>0.64564988122723677</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D279" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E279" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="F279">
-        <v>1.8533919436022721</v>
+        <v>2.652693632384541E-2</v>
       </c>
       <c r="G279">
-        <v>0.26020878121344498</v>
+        <v>7.7662189514797692E-3</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
       </c>
       <c r="C280" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D280" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F280">
-        <v>4.8165924263385644</v>
+        <v>0.1010756453654373</v>
       </c>
       <c r="G280">
-        <v>0.84546451817613177</v>
+        <v>1.8846373384231861E-2</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B281" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C281" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D281" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E281" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F281">
-        <v>6.0766859270597244</v>
+        <v>2.0305101845583259E-2</v>
       </c>
       <c r="G281">
-        <v>0.64564988122723677</v>
+        <v>2.942385436298317E-3</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C282" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D282" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E282" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F282">
-        <v>2.652693632384541E-2</v>
+        <v>7.2468838783740025E-2</v>
       </c>
       <c r="G282">
-        <v>7.7662189514797692E-3</v>
+        <v>1.284773873474916E-2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B283" t="s">
         <v>29</v>
@@ -9018,21 +9006,21 @@
         <v>44</v>
       </c>
       <c r="D283" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E283" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="F283">
-        <v>0.1010756453654373</v>
+        <v>7.8530665234156555E-2</v>
       </c>
       <c r="G283">
-        <v>1.8846373384231861E-2</v>
+        <v>0.1148445042340042</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B284" t="s">
         <v>38</v>
@@ -9041,21 +9029,21 @@
         <v>33</v>
       </c>
       <c r="D284" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E284" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="F284">
-        <v>2.0305101845583259E-2</v>
+        <v>1.5774459423659969E-2</v>
       </c>
       <c r="G284">
-        <v>2.942385436298317E-3</v>
+        <v>1.100436214043778E-2</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B285" t="s">
         <v>29</v>
@@ -9064,44 +9052,44 @@
         <v>44</v>
       </c>
       <c r="D285" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E285" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F285">
-        <v>7.2468838783740025E-2</v>
+        <v>0.20960119948194161</v>
       </c>
       <c r="G285">
-        <v>1.284773873474916E-2</v>
+        <v>4.1712334833597327E-2</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B286" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C286" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D286" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E286" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="F286">
-        <v>7.8530665234156555E-2</v>
+        <v>2.3531802607953369</v>
       </c>
       <c r="G286">
-        <v>0.1148445042340042</v>
+        <v>0.67246420513931904</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B287" t="s">
         <v>38</v>
@@ -9110,113 +9098,113 @@
         <v>33</v>
       </c>
       <c r="D287" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E287" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F287">
-        <v>1.5774459423659969E-2</v>
+        <v>6.2752284166838368E-2</v>
       </c>
       <c r="G287">
-        <v>1.100436214043778E-2</v>
+        <v>1.34370110627382E-2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B288" t="s">
         <v>29</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D288" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E288" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="F288">
-        <v>0.20960119948194161</v>
+        <v>18728.749912283281</v>
       </c>
       <c r="G288">
-        <v>4.1712334833597327E-2</v>
+        <v>2378.1038253162119</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C289" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D289" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E289" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="F289">
-        <v>2.3531802607953369</v>
+        <v>9.0385806375651239E-5</v>
       </c>
       <c r="G289">
-        <v>0.67246420513931904</v>
+        <v>1.023326804296226E-5</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B290" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C290" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D290" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="E290" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F290">
-        <v>6.2752284166838368E-2</v>
+        <v>6.6687010272863736</v>
       </c>
       <c r="G290">
-        <v>1.34370110627382E-2</v>
+        <v>1.09091283240709</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B291" t="s">
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D291" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="E291" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F291">
-        <v>18728.749912283281</v>
+        <v>0.15018398286874871</v>
       </c>
       <c r="G291">
-        <v>2378.1038253162119</v>
+        <v>3.110042167586918E-2</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B292" t="s">
         <v>29</v>
@@ -9225,90 +9213,90 @@
         <v>30</v>
       </c>
       <c r="D292" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E292" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F292">
-        <v>9.0385806375651239E-5</v>
+        <v>0.1709952418096724</v>
       </c>
       <c r="G292">
-        <v>1.023326804296226E-5</v>
+        <v>2.4084413301926989E-2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B293" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C293" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D293" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E293" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F293">
-        <v>6.6687010272863736</v>
+        <v>3.0830770317605162E-5</v>
       </c>
       <c r="G293">
-        <v>1.09091283240709</v>
+        <v>5.3496166145826391E-6</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B294" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C294" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="D294" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E294" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F294">
-        <v>0.15018398286874871</v>
+        <v>9.0940767668442571E-2</v>
       </c>
       <c r="G294">
-        <v>3.110042167586918E-2</v>
+        <v>1.3181901783873219E-2</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B295" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D295" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E295" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="F295">
-        <v>0.1709952418096724</v>
+        <v>150.44819415418129</v>
       </c>
       <c r="G295">
-        <v>2.4084413301926989E-2</v>
+        <v>14.4984181361359</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B296" t="s">
         <v>38</v>
@@ -9317,21 +9305,21 @@
         <v>33</v>
       </c>
       <c r="D296" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E296" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F296">
-        <v>3.0830770317605162E-5</v>
+        <v>0.73336066876637329</v>
       </c>
       <c r="G296">
-        <v>5.3496166145826391E-6</v>
+        <v>8.1614345348011041E-2</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B297" t="s">
         <v>38</v>
@@ -9343,18 +9331,18 @@
         <v>35</v>
       </c>
       <c r="E297" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F297">
-        <v>9.0940767668442571E-2</v>
+        <v>0.39902387189827221</v>
       </c>
       <c r="G297">
-        <v>1.3181901783873219E-2</v>
+        <v>4.4537612577674107E-2</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B298" t="s">
         <v>38</v>
@@ -9363,21 +9351,21 @@
         <v>33</v>
       </c>
       <c r="D298" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E298" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F298">
-        <v>150.44819415418129</v>
+        <v>1.057093692049569</v>
       </c>
       <c r="G298">
-        <v>14.4984181361359</v>
+        <v>0.21461959621951129</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B299" t="s">
         <v>38</v>
@@ -9389,246 +9377,178 @@
         <v>35</v>
       </c>
       <c r="E299" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F299">
-        <v>0.73336066876637329</v>
+        <v>2.7971446442763368E-3</v>
       </c>
       <c r="G299">
-        <v>8.1614345348011041E-2</v>
+        <v>3.090406175527147E-4</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B300" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C300" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D300" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E300" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F300">
-        <v>0.39902387189827221</v>
+        <v>4.4551034645159397</v>
       </c>
       <c r="G300">
-        <v>4.4537612577674107E-2</v>
+        <v>0.56275893241847808</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B301" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C301" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D301" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E301" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F301">
-        <v>1.057093692049569</v>
+        <v>6759.7713772701854</v>
       </c>
       <c r="G301">
-        <v>0.21461959621951129</v>
+        <v>951.65643858092244</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B302" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C302" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D302" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E302" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F302">
-        <v>2.7971446442763368E-3</v>
+        <v>0.24206412298001351</v>
       </c>
       <c r="G302">
-        <v>3.090406175527147E-4</v>
+        <v>5.4274731210035919E-2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B303" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C303" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D303" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E303" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F303">
-        <v>4.4551034645159397</v>
+        <v>45.008859977040593</v>
       </c>
       <c r="G303">
-        <v>0.56275893241847808</v>
+        <v>4.9100504634474316</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B304" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C304" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D304" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E304" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F304">
-        <v>6759.7713772701854</v>
+        <v>10.59987710829188</v>
       </c>
       <c r="G304">
-        <v>951.65643858092244</v>
+        <v>1.596985370532191</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B305" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C305" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D305" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E305" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F305">
-        <v>0.24206412298001351</v>
+        <v>2.4388241103229041E-2</v>
       </c>
       <c r="G305">
-        <v>5.4274731210035919E-2</v>
+        <v>4.8729445842261047E-3</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B306" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C306" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D306" t="s">
         <v>31</v>
       </c>
       <c r="E306" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="F306">
-        <v>45.008859977040593</v>
+        <v>0.2049798310422983</v>
       </c>
       <c r="G306">
-        <v>4.9100504634474316</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>512</v>
-      </c>
-      <c r="B307" t="s">
-        <v>38</v>
-      </c>
-      <c r="C307" t="s">
-        <v>33</v>
-      </c>
-      <c r="D307" t="s">
-        <v>48</v>
-      </c>
-      <c r="E307" t="s">
-        <v>82</v>
-      </c>
-      <c r="F307">
-        <v>10.59987710829188</v>
-      </c>
-      <c r="G307">
-        <v>1.596985370532191</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>513</v>
-      </c>
-      <c r="B308" t="s">
-        <v>38</v>
-      </c>
-      <c r="C308" t="s">
-        <v>33</v>
-      </c>
-      <c r="D308" t="s">
-        <v>31</v>
-      </c>
-      <c r="E308" t="s">
-        <v>81</v>
-      </c>
-      <c r="F308">
-        <v>2.4388241103229041E-2</v>
-      </c>
-      <c r="G308">
-        <v>4.8729445842261047E-3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>514</v>
-      </c>
-      <c r="B309" t="s">
-        <v>29</v>
-      </c>
-      <c r="C309" t="s">
-        <v>30</v>
-      </c>
-      <c r="D309" t="s">
-        <v>31</v>
-      </c>
-      <c r="E309" t="s">
-        <v>4</v>
-      </c>
-      <c r="F309">
-        <v>0.2049798310422983</v>
-      </c>
-      <c r="G309">
         <v>3.5740536691629521E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G306" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>